--- a/media/BillAnalysis/836086478_May_03_2025_Jun_03_2025_Jul_03_2023.xlsx
+++ b/media/BillAnalysis/836086478_May_03_2025_Jun_03_2025_Jul_03_2023.xlsx
@@ -4595,7 +4595,7 @@
     <col min="11" max="11" width="15.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="12.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="22.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
